--- a/Resource/Document/StartResource.xlsx
+++ b/Resource/Document/StartResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\김장후\D2D\Engine\JDEngine\Resource\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0584F1-4868-41D7-AA9F-712E42BF9146}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3965F010-35D0-4204-B4DD-1C61CEAAAE96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{7F2AD2E9-CA8E-4DF2-BDF3-C788B345C094}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23655" windowHeight="6495" xr2:uid="{7F2AD2E9-CA8E-4DF2-BDF3-C788B345C094}"/>
   </bookViews>
   <sheets>
     <sheet name="FishingSpot" sheetId="1" r:id="rId1"/>
@@ -244,6 +244,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -263,12 +269,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,9 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A580C06D-188B-45FF-80B4-5B1220F39FCC}">
   <dimension ref="B1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -611,99 +609,99 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
-        <v>0</v>
+      <c r="C3" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12">
-        <v>0</v>
+      <c r="C4" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
+      <c r="C5" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
-        <v>10</v>
+      <c r="C6" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
